--- a/biology/Zoologie/Benthophilus/Benthophilus.xlsx
+++ b/biology/Zoologie/Benthophilus/Benthophilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benthophilus est un genre de poissons de la famille des Gobiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (3 février 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (3 février 2024) :
 Benthophilus abdurahmanovi Ragimov, 1978
 Benthophilus baeri Kessler, 1877
 Benthophilus casachicus Ragimov, 1978
@@ -563,11 +577,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Benthophilus Eichwald, 1831[1].
-Ce taxon a été créé initialement au rang de sous-genre du genre Gobius[2].
-Benthophilus a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Benthophilus Eichwald, 1831.
+Ce taxon a été créé initialement au rang de sous-genre du genre Gobius.
+Benthophilus a pour synonymes :
 Bentophilus
 Dolichthys
 Doliichthys Sauvage, 1874</t>
@@ -598,9 +614,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Benthophilus, dérivé du grec ancien βένθος, bénthos, « profondeur », et φιλέω, philéô, « qui aime », fait probablement référence à la présence de Benthophilus macrocephalus dans les baies de la mer Caspienne, se déplaçant vers des eaux plus profondes (20-25 m) durant les mois d'hiver[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Benthophilus, dérivé du grec ancien βένθος, bénthos, « profondeur », et φιλέω, philéô, « qui aime », fait probablement référence à la présence de Benthophilus macrocephalus dans les baies de la mer Caspienne, se déplaçant vers des eaux plus profondes (20-25 m) durant les mois d'hiver.
 </t>
         </is>
       </c>
